--- a/matlab/experiment/27Aug/45deg/sim45deg2.xlsx
+++ b/matlab/experiment/27Aug/45deg/sim45deg2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\experiment\27Aug\45deg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FAD105-94D8-4BEC-8E41-947D29C58390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB73EC42-C8F1-4B26-948B-9ECF9B98B92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{18919199-B668-44B3-B980-768F56A6C666}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>S1</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Amplitude</t>
+  </si>
+  <si>
+    <t>Fitness</t>
   </si>
 </sst>
 </file>
@@ -8662,7 +8665,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>8 deg from target</a:t>
+            <a:t>10 deg from target</a:t>
           </a:r>
           <a:endParaRPr lang="en-ZA">
             <a:effectLst/>
@@ -8766,15 +8769,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8804,15 +8807,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8842,15 +8845,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8880,15 +8883,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8918,15 +8921,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8956,15 +8959,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9291,10 +9294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D68988-B849-466E-B38D-9535E737ABE9}">
-  <dimension ref="A18:H20"/>
+  <dimension ref="A18:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q54" sqref="Q54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9366,6 +9369,14 @@
       </c>
       <c r="H20">
         <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>-3.7752138814744529</v>
       </c>
     </row>
   </sheetData>
@@ -12854,8 +12865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6163350D-1BAC-4BAA-A4DF-F26C807EAB52}">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A18" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
